--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_rt_policy_test_ni_rt_policy_export_policy_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_rt_policy_test_ni_rt_policy_export_policy_logs.xlsx
@@ -512,15 +512,78 @@
                         &lt;/routing-policy&gt;
                     &lt;/filter&gt;
 -------------------
-</t>
+                    &lt;filter&gt;
+                        &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+                        &lt;network-instance&gt;
+                        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+                        &lt;/network-instance&gt;
+                        &lt;/network-instances&gt;
+                    &lt;/filter&gt;
+                    </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:6acb4fba-3071-4b7c-9319-e142269b83dc"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:6786047f-2031-4d6e-b18a-74e7cdaafe6a"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 -------------------
+&lt;rpc-reply message-id="urn:uuid:58497c73-4ad6-43a0-8970-613476e99891"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+            &lt;name&gt;22&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
+            &lt;/config&gt;
+            &lt;ospfv2&gt;
+              &lt;global&gt;
+                &lt;config&gt;
+                  &lt;router-id&gt;172.16.1.3&lt;/router-id&gt;
+                &lt;/config&gt;
+              &lt;/global&gt;
+            &lt;/ospfv2&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
 </t>
         </is>
       </c>
@@ -538,25 +601,94 @@
             &lt;config&gt;
               &lt;name&gt;Policy_1&lt;/name&gt;
             &lt;/config&gt;
+            &lt;statements&gt;
+              &lt;statement&gt;
+               &lt;name&gt;1&lt;/name&gt;
+               &lt;config&gt;
+                &lt;name&gt;1&lt;/name&gt;
+               &lt;/config&gt;
+              &lt;/statement&gt;
+            &lt;/statements&gt;
           &lt;/policy-definition&gt;
         &lt;/policy-definitions&gt;
       &lt;/routing-policy&gt;
     &lt;/config&gt;
   &lt;/edit-config&gt; 
 -------------------
-</t>
+  &lt;edit-config&gt;
+    &lt;target&gt;
+      &lt;candidate/&gt;
+    &lt;/target&gt;
+    &lt;config&gt;
+      &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+        &lt;network-instance&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+            &lt;type xmlns:oc-ni-types="http://openconfig.net/yang/network-instance-types"&gt;oc-ni-types:L3VRF&lt;/type&gt;
+          &lt;/config&gt;
+          &lt;statements&gt;
+              &lt;statement&gt;
+               &lt;name&gt;1&lt;/name&gt;
+               &lt;config&gt;
+                &lt;name&gt;1&lt;/name&gt;
+               &lt;/config&gt;
+              &lt;/statement&gt;
+            &lt;/statements&gt;
+          &lt;inter-instance-policies&gt;
+            &lt;apply-policy&gt;
+              &lt;config&gt;
+                &lt;export-policy&gt;Policy_1&lt;/export-policy&gt;
+              &lt;/config&gt;
+            &lt;/apply-policy&gt;
+          &lt;/inter-instance-policies&gt;
+        &lt;/network-instance&gt;
+      &lt;/network-instances&gt;
+    &lt;/config&gt;
+  &lt;/edit-config&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:ac74e6cd-2854-4b01-a5bb-5e265daca0b5"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:1d34d245-d4f7-4250-9ef6-63ee0c36c3b8" nc-ext:flow-id="261"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
 -------------------
 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:6e83b52f-5019-461d-8e9b-c338ce08d375"&gt;
+  &lt;data&gt;
+    &lt;routing-policy&gt;
+      &lt;policy-definitions&gt;
+        &lt;policy-definition&gt;
+          &lt;name&gt;Policy_1&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;Policy_1&lt;/name&gt;
+          &lt;/config&gt;
+          &lt;statements&gt;
+            &lt;statement&gt;
+              &lt;name&gt;1&lt;/name&gt;
+              &lt;config&gt;
+                &lt;name&gt;1&lt;/name&gt;
+              &lt;/config&gt;
+              &lt;actions&gt;
+                &lt;config&gt;
+                  &lt;policy-result&gt;ACCEPT_ROUTE&lt;/policy-result&gt;
+                &lt;/config&gt;
+              &lt;/actions&gt;
+            &lt;/statement&gt;
+          &lt;/statements&gt;
+        &lt;/policy-definition&gt;
+      &lt;/policy-definitions&gt;
+    &lt;/routing-policy&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
 -------------------
 </t>
         </is>
